--- a/storage/app/operationalPlan/17/2021/Оперативный план.xlsx
+++ b/storage/app/operationalPlan/17/2021/Оперативный план.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169AD241-1E40-434E-9073-678D52134AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1820" yWindow="500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>январь</t>
   </si>
@@ -57,52 +58,22 @@
     <t>декабрь</t>
   </si>
   <si>
-    <t>НО № 10</t>
-  </si>
-  <si>
-    <t>НО № 4</t>
-  </si>
-  <si>
-    <t>НО № 5 - ИЦ</t>
-  </si>
-  <si>
-    <t>НО № 7</t>
-  </si>
-  <si>
-    <t>НО № 8</t>
-  </si>
-  <si>
-    <t>НО № 9</t>
-  </si>
-  <si>
-    <t>Научное отделение № 10 (НО № 10)</t>
-  </si>
-  <si>
-    <t>Научное отделение № 4 (НО № 4)</t>
-  </si>
-  <si>
-    <t>Научное отделение № 5 - Испытательный центр (НО № 5 - ИЦ)</t>
-  </si>
-  <si>
-    <t>Научное отделение № 7 (НО № 7)</t>
-  </si>
-  <si>
-    <t>Научное отделение № 8 (НО № 8)</t>
-  </si>
-  <si>
-    <t>Научное отделение № 9 (НО № 9)</t>
-  </si>
-  <si>
     <t>Подразделение_полное_наменование</t>
   </si>
   <si>
     <t>Подразделение_сокр</t>
+  </si>
+  <si>
+    <t>ГЗ Пульсар</t>
+  </si>
+  <si>
+    <t>АО "ГЗ "Пульсар"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,27 +385,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -473,269 +444,119 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>27933347</v>
+        <v>59901614.609999999</v>
       </c>
       <c r="D2" s="1">
-        <v>26411341</v>
+        <v>82540129.599999964</v>
       </c>
       <c r="E2" s="1">
-        <v>41326011</v>
+        <v>80091097.220000029</v>
       </c>
       <c r="F2" s="1">
-        <v>25550095</v>
+        <v>54590542.120000012</v>
       </c>
       <c r="G2" s="1">
-        <v>24060719</v>
+        <v>65821662.579999998</v>
       </c>
       <c r="H2" s="1">
-        <v>23794307</v>
+        <v>101728978.88000003</v>
       </c>
       <c r="I2" s="1">
-        <v>24122899</v>
+        <v>114938191.81000002</v>
       </c>
       <c r="J2" s="1">
-        <v>13385012</v>
+        <v>118906115.77000001</v>
       </c>
       <c r="K2" s="1">
-        <v>24811638</v>
+        <v>114499404.05</v>
       </c>
       <c r="L2" s="1">
-        <v>144126536</v>
+        <v>113556374.62000003</v>
       </c>
       <c r="M2" s="1">
-        <v>97544203</v>
+        <v>112271973.81000003</v>
       </c>
       <c r="N2" s="1">
-        <v>11666947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2323526</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2284370</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1632700</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4641184</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1639959</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4097509</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1590559</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1590559</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1590559</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1590559</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1590559</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1848585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1">
-        <v>127326984</v>
-      </c>
-      <c r="D4" s="1">
-        <v>110138601</v>
-      </c>
-      <c r="E4" s="1">
-        <v>117468675</v>
-      </c>
-      <c r="F4" s="1">
-        <v>118610206</v>
-      </c>
-      <c r="G4" s="1">
-        <v>91362729</v>
-      </c>
-      <c r="H4" s="1">
-        <v>165745661</v>
-      </c>
-      <c r="I4" s="1">
-        <v>145828476</v>
-      </c>
-      <c r="J4" s="1">
-        <v>130189611</v>
-      </c>
-      <c r="K4" s="1">
-        <v>133992787</v>
-      </c>
-      <c r="L4" s="1">
-        <v>95967059</v>
-      </c>
-      <c r="M4" s="1">
-        <v>137307613</v>
-      </c>
-      <c r="N4" s="1">
-        <v>133928553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18486100</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11245600</v>
-      </c>
-      <c r="E5" s="1">
-        <v>24544000</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16315000</v>
-      </c>
-      <c r="G5" s="1">
-        <v>55124000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>18035000</v>
-      </c>
-      <c r="I5" s="1">
-        <v>51328400</v>
-      </c>
-      <c r="J5" s="1">
-        <v>15253500</v>
-      </c>
-      <c r="K5" s="1">
-        <v>22688800</v>
-      </c>
-      <c r="L5" s="1">
-        <v>239322000</v>
-      </c>
-      <c r="M5" s="1">
-        <v>64417000</v>
-      </c>
-      <c r="N5" s="1">
-        <v>15092000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3173025</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>21541131</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3606521</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3165405</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43421567</v>
-      </c>
-      <c r="I6" s="1">
-        <v>21780686</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>17250037</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1378143</v>
-      </c>
-      <c r="M6" s="1">
-        <v>382406354</v>
-      </c>
-      <c r="N6" s="1">
-        <v>413053410</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>50410193</v>
-      </c>
-      <c r="L7" s="1">
-        <v>87568374</v>
-      </c>
-      <c r="M7" s="1">
-        <v>65647028</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1773131456</v>
-      </c>
+        <v>109698952.76000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
